--- a/biology/Médecine/Apex_de_la_racine_de_la_dent/Apex_de_la_racine_de_la_dent.xlsx
+++ b/biology/Médecine/Apex_de_la_racine_de_la_dent/Apex_de_la_racine_de_la_dent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les apex des racines des dents sont les extrémités effilées terminales des parties racinaires des dents.
 Ils présentent chacun une ouverture : le foramen de l'apex de la dent. Ces foramens sont les points d'entrée de la vascularisation et de l'innervation dentaire.
@@ -512,7 +524,9 @@
           <t>Aspect clinique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Certaines pathologies peuvent se répercuter au niveau de cette zone. Ce sont les pathologies péri-apicales, qui seront traitées par l'endodontie.
 En cas de choc violent sur une dent (souvent une incisive centrale supérieure), il y a souvent une rupture du paquet vasculo-nerveux au niveau de l'apex, par écrasement de celui-ci, ce qui va entrainer une nécrose de la dent.
